--- a/dengue data converted /2015_Dengue_extracted.xlsx
+++ b/dengue data converted /2015_Dengue_extracted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2db956eb42fcc03/Dokumente/Bioinfo/Klimaprojekt/Daten/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemitigrato/Desktop/topic04_team01/dengue data converted /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{00E0BDEB-1B28-4D40-BD30-5CA72CBFB0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16566F5A-817B-455B-9BE2-82AB6253C5E5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B738E9-DD73-6F49-A7B7-D5EBED661EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27320" yWindow="-2080" windowWidth="27320" windowHeight="18920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -657,7 +657,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -992,9 +992,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1032,9 +1032,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1067,26 +1067,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1119,26 +1102,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1319,12 +1285,12 @@
       <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="1" max="1" width="28.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1366,7 +1332,7 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -1407,7 +1373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -1449,7 +1415,7 @@
       </c>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>31</v>
       </c>
@@ -1491,7 +1457,7 @@
       </c>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>60</v>
       </c>
@@ -1532,7 +1498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>67</v>
       </c>
@@ -1573,7 +1539,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>48</v>
       </c>
@@ -1615,7 +1581,7 @@
       </c>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -1657,7 +1623,7 @@
       </c>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>68</v>
       </c>
@@ -1698,7 +1664,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>49</v>
       </c>
@@ -1740,7 +1706,7 @@
       </c>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1782,7 +1748,7 @@
       </c>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -1824,7 +1790,7 @@
       </c>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>50</v>
       </c>
@@ -1866,7 +1832,7 @@
       </c>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>76</v>
       </c>
@@ -1907,7 +1873,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>56</v>
       </c>
@@ -1948,7 +1914,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
@@ -1990,7 +1956,7 @@
       </c>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
@@ -2032,7 +1998,7 @@
       </c>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>57</v>
       </c>
@@ -2073,7 +2039,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>77</v>
       </c>
@@ -2114,7 +2080,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
@@ -2156,7 +2122,7 @@
       </c>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
@@ -2198,7 +2164,7 @@
       </c>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>61</v>
       </c>
@@ -2239,7 +2205,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>33</v>
       </c>
@@ -2281,7 +2247,7 @@
       </c>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>17</v>
       </c>
@@ -2323,7 +2289,7 @@
       </c>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>58</v>
       </c>
@@ -2364,7 +2330,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>72</v>
       </c>
@@ -2405,7 +2371,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>34</v>
       </c>
@@ -2447,7 +2413,7 @@
       </c>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>41</v>
       </c>
@@ -2489,7 +2455,7 @@
       </c>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>62</v>
       </c>
@@ -2530,7 +2496,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>69</v>
       </c>
@@ -2571,7 +2537,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>28</v>
       </c>
@@ -2613,7 +2579,7 @@
       </c>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>78</v>
       </c>
@@ -2654,7 +2620,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>18</v>
       </c>
@@ -2696,7 +2662,7 @@
       </c>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>83</v>
       </c>
@@ -2737,7 +2703,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>63</v>
       </c>
@@ -2778,7 +2744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>64</v>
       </c>
@@ -2819,7 +2785,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
@@ -2861,7 +2827,7 @@
       </c>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
@@ -2903,7 +2869,7 @@
       </c>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
@@ -2945,7 +2911,7 @@
       </c>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>84</v>
       </c>
@@ -2986,7 +2952,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>79</v>
       </c>
@@ -3027,7 +2993,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>85</v>
       </c>
@@ -3068,7 +3034,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>19</v>
       </c>
@@ -3110,7 +3076,7 @@
       </c>
       <c r="N43" s="2"/>
     </row>
-    <row r="44" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>21</v>
       </c>
@@ -3152,7 +3118,7 @@
       </c>
       <c r="N44" s="2"/>
     </row>
-    <row r="45" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>42</v>
       </c>
@@ -3194,7 +3160,7 @@
       </c>
       <c r="N45" s="2"/>
     </row>
-    <row r="46" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>29</v>
       </c>
@@ -3236,7 +3202,7 @@
       </c>
       <c r="N46" s="2"/>
     </row>
-    <row r="47" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>22</v>
       </c>
@@ -3278,7 +3244,7 @@
       </c>
       <c r="N47" s="2"/>
     </row>
-    <row r="48" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>20</v>
       </c>
@@ -3320,7 +3286,7 @@
       </c>
       <c r="N48" s="2"/>
     </row>
-    <row r="49" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>80</v>
       </c>
@@ -3361,7 +3327,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>51</v>
       </c>
@@ -3403,7 +3369,7 @@
       </c>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>43</v>
       </c>
@@ -3445,7 +3411,7 @@
       </c>
       <c r="N51" s="2"/>
     </row>
-    <row r="52" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>81</v>
       </c>
@@ -3486,7 +3452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>44</v>
       </c>
@@ -3528,7 +3494,7 @@
       </c>
       <c r="N53" s="2"/>
     </row>
-    <row r="54" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>52</v>
       </c>
@@ -3570,7 +3536,7 @@
       </c>
       <c r="N54" s="2"/>
     </row>
-    <row r="55" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>59</v>
       </c>
@@ -3611,7 +3577,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>53</v>
       </c>
@@ -3653,7 +3619,7 @@
       </c>
       <c r="N56" s="2"/>
     </row>
-    <row r="57" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>65</v>
       </c>
@@ -3694,7 +3660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>54</v>
       </c>
@@ -3736,7 +3702,7 @@
       </c>
       <c r="N58" s="2"/>
     </row>
-    <row r="59" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>45</v>
       </c>
@@ -3778,7 +3744,7 @@
       </c>
       <c r="N59" s="2"/>
     </row>
-    <row r="60" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>46</v>
       </c>
@@ -3820,7 +3786,7 @@
       </c>
       <c r="N60" s="2"/>
     </row>
-    <row r="61" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>38</v>
       </c>
@@ -3862,7 +3828,7 @@
       </c>
       <c r="N61" s="2"/>
     </row>
-    <row r="62" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>86</v>
       </c>
@@ -3903,7 +3869,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>73</v>
       </c>
@@ -3944,7 +3910,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>39</v>
       </c>
@@ -3986,7 +3952,7 @@
       </c>
       <c r="N64" s="2"/>
     </row>
-    <row r="65" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>87</v>
       </c>
@@ -4027,7 +3993,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>23</v>
       </c>
@@ -4069,7 +4035,7 @@
       </c>
       <c r="N66" s="2"/>
     </row>
-    <row r="67" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>47</v>
       </c>
@@ -4111,7 +4077,7 @@
       </c>
       <c r="N67" s="2"/>
     </row>
-    <row r="68" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>82</v>
       </c>
@@ -4152,7 +4118,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>70</v>
       </c>
@@ -4193,7 +4159,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>24</v>
       </c>
@@ -4235,7 +4201,7 @@
       </c>
       <c r="N70" s="2"/>
     </row>
-    <row r="71" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>88</v>
       </c>
@@ -4276,7 +4242,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>55</v>
       </c>
@@ -4318,7 +4284,7 @@
       </c>
       <c r="N72" s="2"/>
     </row>
-    <row r="73" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>74</v>
       </c>
@@ -4359,7 +4325,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>66</v>
       </c>
@@ -4400,7 +4366,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>30</v>
       </c>
@@ -4442,7 +4408,7 @@
       </c>
       <c r="N75" s="2"/>
     </row>
-    <row r="76" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>25</v>
       </c>
@@ -4484,7 +4450,7 @@
       </c>
       <c r="N76" s="2"/>
     </row>
-    <row r="77" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>89</v>
       </c>
@@ -4525,7 +4491,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>75</v>
       </c>
